--- a/lectures/algos_datastruct_comp/sudoku.xlsx
+++ b/lectures/algos_datastruct_comp/sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\BROCCHI\computability_algos_datastruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7B750-DD7A-4DCB-9E5F-E669DC3515A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BF4A9-9532-4E6D-8ED3-FADA0EDCEEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>tried 1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>was 4, tried 5, 6, 7, 8, 9</t>
+    <t>was 3, try 4</t>
   </si>
   <si>
-    <t>was 3, try 4</t>
+    <t>was 4, tried 5,6,7,8,9</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,9 +168,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,7 +1177,7 @@
   <dimension ref="Q1:AK11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="AE2" sqref="AE2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,15 +1245,15 @@
         <v>0</v>
       </c>
       <c r="AC2" s="8"/>
-      <c r="AE2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
+      <c r="AE2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
     </row>
     <row r="3" spans="17:37" x14ac:dyDescent="0.3">
       <c r="S3" s="1"/>
@@ -1434,7 +1431,7 @@
   <dimension ref="Q1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="AE2" sqref="AE2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,7 +1498,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AE2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
